--- a/10_池泉二手车平台/04_项目管理/CQJS012019004_项目计划.xlsx
+++ b/10_池泉二手车平台/04_项目管理/CQJS012019004_项目计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12465" tabRatio="394" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="13845" windowHeight="12195" tabRatio="394" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="開発スケジュール（ｂｋ）" sheetId="1" state="hidden" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="182">
   <si>
     <t>画面名称</t>
   </si>
@@ -367,6 +367,9 @@
   </si>
   <si>
     <t>人员删除</t>
+  </si>
+  <si>
+    <t>人员查看</t>
   </si>
   <si>
     <t>2.车源管理</t>
@@ -664,10 +667,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -713,9 +716,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,34 +772,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -765,24 +786,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -794,15 +808,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,35 +822,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -858,20 +875,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -933,13 +936,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,31 +1020,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,7 +1062,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,73 +1098,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,37 +1110,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1216,56 +1219,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1290,15 +1243,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1313,16 +1257,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1331,142 +1334,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -29331,7 +29334,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P16" sqref="P16"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -32835,7 +32838,9 @@
       <c r="EJ20" s="20"/>
     </row>
     <row r="21" s="35" customFormat="1" ht="20.1" customHeight="1" outlineLevel="1" spans="3:140">
-      <c r="C21" s="54"/>
+      <c r="C21" s="54" t="s">
+        <v>85</v>
+      </c>
       <c r="D21" s="30" t="s">
         <v>42</v>
       </c>
@@ -33420,7 +33425,7 @@
     </row>
     <row r="25" s="35" customFormat="1" ht="20.1" customHeight="1" spans="3:140">
       <c r="C25" s="51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
@@ -33858,7 +33863,7 @@
     </row>
     <row r="28" s="35" customFormat="1" ht="20.1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C28" s="54" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="30" t="s">
         <v>42</v>
@@ -34004,7 +34009,7 @@
     </row>
     <row r="29" s="35" customFormat="1" ht="20.1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C29" s="54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="30" t="s">
         <v>42</v>
@@ -34150,7 +34155,7 @@
     </row>
     <row r="30" s="35" customFormat="1" ht="20.1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C30" s="54" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="30" t="s">
         <v>42</v>
@@ -34296,13 +34301,13 @@
     </row>
     <row r="31" s="35" customFormat="1" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C31" s="54" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D31" s="30" t="s">
         <v>42</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F31" s="49"/>
       <c r="G31" s="50">
@@ -34444,13 +34449,13 @@
     </row>
     <row r="32" s="35" customFormat="1" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C32" s="54" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D32" s="30" t="s">
         <v>42</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F32" s="49"/>
       <c r="G32" s="50">
@@ -34592,13 +34597,13 @@
     </row>
     <row r="33" s="35" customFormat="1" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C33" s="54" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D33" s="30" t="s">
         <v>42</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F33" s="49"/>
       <c r="G33" s="50">
@@ -34739,13 +34744,13 @@
     </row>
     <row r="34" s="35" customFormat="1" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C34" s="54" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D34" s="30" t="s">
         <v>42</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F34" s="49"/>
       <c r="G34" s="50">
@@ -34886,13 +34891,13 @@
     </row>
     <row r="35" s="35" customFormat="1" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C35" s="54" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D35" s="30" t="s">
         <v>42</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F35" s="49"/>
       <c r="G35" s="50">
@@ -35034,13 +35039,13 @@
     </row>
     <row r="36" s="35" customFormat="1" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C36" s="54" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D36" s="30" t="s">
         <v>42</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F36" s="49"/>
       <c r="G36" s="50">
@@ -35182,13 +35187,13 @@
     </row>
     <row r="37" s="35" customFormat="1" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C37" s="54" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D37" s="30" t="s">
         <v>42</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F37" s="49"/>
       <c r="G37" s="50">
@@ -35330,13 +35335,13 @@
     </row>
     <row r="38" s="35" customFormat="1" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C38" s="54" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D38" s="30" t="s">
         <v>42</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F38" s="49"/>
       <c r="G38" s="50">
@@ -35478,13 +35483,13 @@
     </row>
     <row r="39" s="35" customFormat="1" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C39" s="54" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D39" s="30" t="s">
         <v>42</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F39" s="49"/>
       <c r="G39" s="50">
@@ -35626,13 +35631,13 @@
     </row>
     <row r="40" s="35" customFormat="1" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C40" s="54" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D40" s="30" t="s">
         <v>42</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F40" s="49"/>
       <c r="G40" s="50">
@@ -35774,13 +35779,13 @@
     </row>
     <row r="41" s="35" customFormat="1" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C41" s="54" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D41" s="30" t="s">
         <v>42</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F41" s="49"/>
       <c r="G41" s="50">
@@ -35922,13 +35927,13 @@
     </row>
     <row r="42" customFormat="1" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C42" s="31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>42</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F42" s="15"/>
       <c r="G42" s="16">
@@ -36070,7 +36075,7 @@
     </row>
     <row r="43" s="35" customFormat="1" ht="20.1" customHeight="1" spans="3:140">
       <c r="C43" s="51" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
@@ -36508,7 +36513,7 @@
     </row>
     <row r="46" s="35" customFormat="1" ht="20.1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C46" s="54" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D46" s="30" t="s">
         <v>42</v>
@@ -36654,7 +36659,7 @@
     </row>
     <row r="47" s="35" customFormat="1" ht="20.1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C47" s="54" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D47" s="30" t="s">
         <v>42</v>
@@ -36800,7 +36805,7 @@
     </row>
     <row r="48" s="35" customFormat="1" ht="20.1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C48" s="54" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D48" s="30" t="s">
         <v>42</v>
@@ -36946,7 +36951,7 @@
     </row>
     <row r="49" s="35" customFormat="1" ht="20.1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C49" s="54" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D49" s="30" t="s">
         <v>42</v>
@@ -45921,11 +45926,8 @@
       <formula>$D49="未着手"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E19 E20 E21 E22 E23">
-      <formula1>[1]下拉选择!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10 E11 E12 E13 E14 E15 E24 E25 E28 E29 E30 E42 E43 E46 E47 E48 E49 E4:E9 E16:E18 E26:E27 E31:E41 E44:E45">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10 E11 E12 E13 E14 E15 E19 E20 E21 E22 E23 E24 E25 E28 E29 E30 E42 E43 E46 E47 E48 E49 E4:E9 E16:E18 E26:E27 E31:E41 E44:E45">
       <formula1>[1]下拉选择!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11 D12 D13 D14 D18 D19 D20 D21 D22 D23 D24 D28 D29 D30 D33 D40 D41 D42 D46 D47 D48 D49 D4:D10 D15:D17 D25:D27 D31:D32 D34:D39 D43:D45">
@@ -45978,7 +45980,7 @@
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="C1" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -45996,7 +45998,7 @@
       <c r="Q1" s="8"/>
       <c r="R1" s="8"/>
       <c r="S1" s="25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="T1" s="25"/>
       <c r="U1" s="25"/>
@@ -46956,7 +46958,7 @@
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="3:140">
       <c r="C4" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
@@ -47247,7 +47249,7 @@
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="3:140">
       <c r="C6" s="17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>42</v>
@@ -47395,7 +47397,7 @@
     </row>
     <row r="7" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C7" s="18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>42</v>
@@ -47541,7 +47543,7 @@
     </row>
     <row r="8" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C8" s="18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>42</v>
@@ -47687,7 +47689,7 @@
     </row>
     <row r="9" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C9" s="18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>42</v>
@@ -47833,7 +47835,7 @@
     </row>
     <row r="10" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C10" s="18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>42</v>
@@ -47979,7 +47981,7 @@
     </row>
     <row r="11" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C11" s="18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>42</v>
@@ -48125,7 +48127,7 @@
     </row>
     <row r="12" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C12" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>42</v>
@@ -48271,7 +48273,7 @@
     </row>
     <row r="13" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C13" s="18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>42</v>
@@ -48417,7 +48419,7 @@
     </row>
     <row r="14" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C14" s="18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>42</v>
@@ -48563,7 +48565,7 @@
     </row>
     <row r="15" ht="20.1" customHeight="1" collapsed="1" spans="3:140">
       <c r="C15" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -48854,7 +48856,7 @@
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="3:140">
       <c r="C17" s="17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>42</v>
@@ -49002,7 +49004,7 @@
     </row>
     <row r="18" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C18" s="18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>42</v>
@@ -49148,7 +49150,7 @@
     </row>
     <row r="19" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C19" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>42</v>
@@ -49294,7 +49296,7 @@
     </row>
     <row r="20" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C20" s="18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>42</v>
@@ -49440,7 +49442,7 @@
     </row>
     <row r="21" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C21" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>42</v>
@@ -49586,7 +49588,7 @@
     </row>
     <row r="22" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C22" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>42</v>
@@ -49732,7 +49734,7 @@
     </row>
     <row r="23" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C23" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>42</v>
@@ -49878,7 +49880,7 @@
     </row>
     <row r="24" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C24" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>42</v>
@@ -50024,7 +50026,7 @@
     </row>
     <row r="25" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C25" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>42</v>
@@ -50170,7 +50172,7 @@
     </row>
     <row r="26" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C26" s="18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>42</v>
@@ -50316,7 +50318,7 @@
     </row>
     <row r="27" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C27" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>42</v>
@@ -50462,7 +50464,7 @@
     </row>
     <row r="28" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C28" s="18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>42</v>
@@ -50608,7 +50610,7 @@
     </row>
     <row r="29" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C29" s="18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>42</v>
@@ -50760,7 +50762,7 @@
         <v>10</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
@@ -51051,7 +51053,7 @@
     </row>
     <row r="32" customFormat="1" ht="20.1" customHeight="1" spans="3:140">
       <c r="C32" s="17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>42</v>
@@ -51199,7 +51201,7 @@
     </row>
     <row r="33" customFormat="1" ht="19.5" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C33" s="18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>42</v>
@@ -51345,7 +51347,7 @@
     </row>
     <row r="34" customFormat="1" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C34" s="18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>42</v>
@@ -51491,7 +51493,7 @@
     </row>
     <row r="35" customFormat="1" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C35" s="18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>42</v>
@@ -51637,7 +51639,7 @@
     </row>
     <row r="36" customFormat="1" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C36" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>42</v>
@@ -51783,7 +51785,7 @@
     </row>
     <row r="37" customFormat="1" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C37" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>42</v>
@@ -51929,7 +51931,7 @@
     </row>
     <row r="38" customFormat="1" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C38" s="18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>42</v>
@@ -52075,7 +52077,7 @@
     </row>
     <row r="39" customFormat="1" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C39" s="18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>42</v>
@@ -52221,7 +52223,7 @@
     </row>
     <row r="40" customFormat="1" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C40" s="18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>42</v>
@@ -52367,7 +52369,7 @@
     </row>
     <row r="41" customFormat="1" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C41" s="18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>42</v>
@@ -52513,7 +52515,7 @@
     </row>
     <row r="42" customFormat="1" ht="20.1" customHeight="1" collapsed="1" spans="3:140">
       <c r="C42" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
@@ -52804,7 +52806,7 @@
     </row>
     <row r="44" customFormat="1" ht="20.1" customHeight="1" spans="3:140">
       <c r="C44" s="17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>42</v>
@@ -52952,7 +52954,7 @@
     </row>
     <row r="45" customFormat="1" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C45" s="18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>42</v>
@@ -53098,7 +53100,7 @@
     </row>
     <row r="46" customFormat="1" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C46" s="18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>42</v>
@@ -53245,7 +53247,7 @@
     </row>
     <row r="47" customFormat="1" ht="29" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C47" s="21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>42</v>
@@ -53391,7 +53393,7 @@
     </row>
     <row r="48" customFormat="1" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C48" s="18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>42</v>
@@ -53537,7 +53539,7 @@
     </row>
     <row r="49" customFormat="1" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C49" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>42</v>
@@ -53684,7 +53686,7 @@
     </row>
     <row r="50" customFormat="1" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C50" s="18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>42</v>
@@ -53830,7 +53832,7 @@
     </row>
     <row r="51" customFormat="1" ht="31" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C51" s="21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>42</v>
@@ -53976,7 +53978,7 @@
     </row>
     <row r="52" customFormat="1" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C52" s="18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D52" s="14" t="s">
         <v>42</v>
@@ -54123,7 +54125,7 @@
     </row>
     <row r="53" customFormat="1" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C53" s="18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D53" s="14" t="s">
         <v>42</v>
@@ -54269,7 +54271,7 @@
     </row>
     <row r="54" customFormat="1" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C54" s="18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>42</v>
@@ -54415,7 +54417,7 @@
     </row>
     <row r="55" customFormat="1" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C55" s="18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>42</v>
@@ -54562,7 +54564,7 @@
     </row>
     <row r="56" customFormat="1" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C56" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>42</v>
@@ -54708,7 +54710,7 @@
     </row>
     <row r="57" customFormat="1" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C57" s="18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>42</v>
@@ -54854,7 +54856,7 @@
     </row>
     <row r="58" customFormat="1" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C58" s="18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D58" s="14" t="s">
         <v>42</v>
@@ -55001,7 +55003,7 @@
     </row>
     <row r="59" customFormat="1" ht="20.1" customHeight="1" collapsed="1" spans="3:140">
       <c r="C59" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
@@ -55292,7 +55294,7 @@
     </row>
     <row r="61" customFormat="1" ht="20.1" customHeight="1" spans="3:140">
       <c r="C61" s="17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D61" s="14" t="s">
         <v>42</v>
@@ -55586,7 +55588,7 @@
     </row>
     <row r="63" customFormat="1" ht="20.1" customHeight="1" collapsed="1" spans="3:140">
       <c r="C63" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
@@ -55877,7 +55879,7 @@
     </row>
     <row r="65" customFormat="1" ht="20.1" customHeight="1" spans="3:140">
       <c r="C65" s="17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D65" s="14" t="s">
         <v>42</v>
@@ -56025,7 +56027,7 @@
     </row>
     <row r="66" customFormat="1" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C66" s="18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D66" s="14" t="s">
         <v>42</v>
@@ -56171,7 +56173,7 @@
     </row>
     <row r="67" customFormat="1" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C67" s="18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D67" s="14" t="s">
         <v>42</v>
@@ -56317,7 +56319,7 @@
     </row>
     <row r="68" customFormat="1" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C68" s="18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D68" s="14" t="s">
         <v>42</v>
@@ -56463,7 +56465,7 @@
     </row>
     <row r="69" customFormat="1" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C69" s="18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>42</v>
@@ -56609,7 +56611,7 @@
     </row>
     <row r="70" customFormat="1" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C70" s="18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D70" s="14" t="s">
         <v>42</v>
@@ -56755,7 +56757,7 @@
     </row>
     <row r="71" customFormat="1" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C71" s="18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>42</v>
@@ -56901,7 +56903,7 @@
     </row>
     <row r="72" customFormat="1" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C72" s="18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D72" s="14" t="s">
         <v>42</v>
@@ -57047,7 +57049,7 @@
     </row>
     <row r="73" customFormat="1" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C73" s="18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D73" s="14" t="s">
         <v>42</v>
@@ -57193,7 +57195,7 @@
     </row>
     <row r="74" ht="20.1" customHeight="1" collapsed="1" spans="3:140">
       <c r="C74" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D74" s="14"/>
       <c r="E74" s="14"/>
@@ -57484,7 +57486,7 @@
     </row>
     <row r="76" ht="20.1" customHeight="1" spans="3:140">
       <c r="C76" s="17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D76" s="14" t="s">
         <v>42</v>
@@ -57632,7 +57634,7 @@
     </row>
     <row r="77" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C77" s="18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D77" s="14" t="s">
         <v>42</v>
@@ -57778,7 +57780,7 @@
     </row>
     <row r="78" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C78" s="18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D78" s="14" t="s">
         <v>42</v>
@@ -57924,7 +57926,7 @@
     </row>
     <row r="79" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C79" s="18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D79" s="14" t="s">
         <v>42</v>
@@ -58070,7 +58072,7 @@
     </row>
     <row r="80" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C80" s="18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D80" s="14" t="s">
         <v>42</v>
@@ -58216,7 +58218,7 @@
     </row>
     <row r="81" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C81" s="18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D81" s="14" t="s">
         <v>42</v>
@@ -58362,7 +58364,7 @@
     </row>
     <row r="82" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C82" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D82" s="14" t="s">
         <v>42</v>
@@ -58508,7 +58510,7 @@
     </row>
     <row r="83" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C83" s="18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D83" s="14" t="s">
         <v>42</v>
@@ -58654,7 +58656,7 @@
     </row>
     <row r="84" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C84" s="18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D84" s="14" t="s">
         <v>42</v>
@@ -58800,7 +58802,7 @@
     </row>
     <row r="85" ht="20.1" customHeight="1" collapsed="1" spans="3:140">
       <c r="C85" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D85" s="14"/>
       <c r="E85" s="14"/>
@@ -59091,7 +59093,7 @@
     </row>
     <row r="87" ht="20.1" customHeight="1" spans="3:140">
       <c r="C87" s="17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D87" s="14" t="s">
         <v>42</v>
@@ -59239,7 +59241,7 @@
     </row>
     <row r="88" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C88" s="18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D88" s="14" t="s">
         <v>42</v>
@@ -59385,7 +59387,7 @@
     </row>
     <row r="89" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C89" s="18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D89" s="14" t="s">
         <v>42</v>
@@ -59531,7 +59533,7 @@
     </row>
     <row r="90" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C90" s="18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D90" s="14" t="s">
         <v>42</v>
@@ -59677,7 +59679,7 @@
     </row>
     <row r="91" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C91" s="18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D91" s="14" t="s">
         <v>42</v>
@@ -59823,7 +59825,7 @@
     </row>
     <row r="92" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C92" s="18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D92" s="14" t="s">
         <v>42</v>
@@ -59969,7 +59971,7 @@
     </row>
     <row r="93" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C93" s="18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D93" s="14" t="s">
         <v>42</v>
@@ -60115,7 +60117,7 @@
     </row>
     <row r="94" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C94" s="18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D94" s="14" t="s">
         <v>42</v>
@@ -60261,7 +60263,7 @@
     </row>
     <row r="95" ht="20.1" customHeight="1" collapsed="1" spans="3:140">
       <c r="C95" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
@@ -60552,7 +60554,7 @@
     </row>
     <row r="97" ht="20.1" customHeight="1" spans="3:140">
       <c r="C97" s="17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D97" s="14" t="s">
         <v>42</v>
@@ -60699,7 +60701,7 @@
     </row>
     <row r="98" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C98" s="18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D98" s="14" t="s">
         <v>42</v>
@@ -60845,7 +60847,7 @@
     </row>
     <row r="99" customFormat="1" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C99" s="18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D99" s="14" t="s">
         <v>42</v>
@@ -60991,7 +60993,7 @@
     </row>
     <row r="100" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C100" s="18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D100" s="14" t="s">
         <v>42</v>
@@ -61137,7 +61139,7 @@
     </row>
     <row r="101" ht="20.1" customHeight="1" collapsed="1" spans="3:140">
       <c r="C101" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D101" s="14"/>
       <c r="E101" s="14"/>
@@ -61428,7 +61430,7 @@
     </row>
     <row r="103" ht="20.1" customHeight="1" spans="3:140">
       <c r="C103" s="17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D103" s="14" t="s">
         <v>42</v>
@@ -61576,7 +61578,7 @@
     </row>
     <row r="104" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C104" s="18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D104" s="14" t="s">
         <v>42</v>
@@ -61722,7 +61724,7 @@
     </row>
     <row r="105" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C105" s="18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D105" s="14" t="s">
         <v>42</v>
@@ -61868,7 +61870,7 @@
     </row>
     <row r="106" customFormat="1" ht="20.1" customHeight="1" collapsed="1" spans="3:140">
       <c r="C106" s="29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D106" s="14"/>
       <c r="E106" s="14"/>
@@ -62307,7 +62309,7 @@
     </row>
     <row r="109" customFormat="1" ht="20.1" hidden="1" customHeight="1" outlineLevel="1" spans="3:140">
       <c r="C109" s="31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D109" s="14" t="s">
         <v>42</v>
@@ -65265,11 +65267,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26 E27 E28 E29 E30 E46 E47 E51 E52 E53 E54 E55 E56 E57 E99 E100 E106 E4:E14 E15:E25 E31:E41 E42:E45 E48:E50 E58:E62 E63:E73 E74:E94 E95:E98 E101:E105">
       <formula1>[2]下拉选择!#REF!</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D73">
+      <formula1>"未着手,作成中,完了"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D30 D99 D100 D109 D4:D14 D15:D24 D25:D29 D31:D41 D42:D44 D45:D58 D59:D62 D63:D72 D74:D94 D95:D98 D101:D105 D106:D108">
       <formula1>"未着手,作成中,完成"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D73">
-      <formula1>"未着手,作成中,完了"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E109 E107:E108">
       <formula1>[1]下拉选择!#REF!</formula1>

--- a/10_池泉二手车平台/04_项目管理/CQJS012019004_项目计划.xlsx
+++ b/10_池泉二手车平台/04_项目管理/CQJS012019004_项目计划.xlsx
@@ -475,6 +475,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -524,6 +537,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,26 +604,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -618,15 +624,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,7 +656,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -695,37 +695,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,49 +737,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,7 +767,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,48 +876,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,10 +1081,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1099,142 +1093,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4411,16 +4405,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>241935</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>178435</xdr:rowOff>
+      <xdr:rowOff>223520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>32385</xdr:rowOff>
+      <xdr:rowOff>77470</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -4429,7 +4423,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10494645" y="178435"/>
+          <a:off x="10986135" y="223520"/>
           <a:ext cx="1905" cy="16637000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -8838,13 +8832,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -8988,13 +8982,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -17131,11 +17125,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E27">
+      <formula1>"鄒強,王曦,呉江,李一寧"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D27">
       <formula1>"未着手,作成中,完了"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E27">
-      <formula1>"鄒強,王曦,呉江,李一寧"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17151,11 +17145,11 @@
   <dimension ref="A1:EJ258"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="H40" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB9" sqref="AB9"/>
+      <selection pane="bottomRight" activeCell="W35" sqref="W35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -24356,7 +24350,7 @@
       </c>
       <c r="G46" s="25">
         <f>AVERAGE(G48:G49)</f>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="H46" s="23"/>
       <c r="I46" s="23"/>
@@ -24654,7 +24648,7 @@
       </c>
       <c r="F48" s="24"/>
       <c r="G48" s="25">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H48" s="23"/>
       <c r="I48" s="23"/>
